--- a/REGULAR/CITY MARKET/PARRA, VICTORIA.xlsx
+++ b/REGULAR/CITY MARKET/PARRA, VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -299,9 +299,6 @@
     <t>7/23-8/12/2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>VL(15-0-0)</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>8/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1332,12 +1332,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>214.42500000000001</v>
+        <v>214.92500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1506,7 +1506,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>304.08300000000003</v>
+        <v>305.58300000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2907,7 +2907,7 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -3015,7 +3015,7 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39">
@@ -3059,7 +3059,7 @@
         <v>44835</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -3129,7 +3129,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39">
@@ -3239,7 +3239,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
@@ -3363,7 +3363,7 @@
         <v>45047</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -3391,15 +3391,15 @@
       <c r="B98" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>88</v>
+      <c r="C98" s="13">
+        <v>1.25</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v xml:space="preserve"> </v>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39">
         <v>1</v>
@@ -3439,13 +3439,15 @@
       <c r="B100" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
@@ -3458,9 +3460,13 @@
       <c r="A101" s="40">
         <v>45139</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>2</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -3470,13 +3476,15 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3485,14 +3493,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49">
+        <v>45152</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3510,7 +3522,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3528,7 +3540,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3546,7 +3558,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3564,7 +3576,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3582,7 +3594,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3600,7 +3612,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3618,7 +3630,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3636,7 +3648,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3654,7 +3666,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3672,7 +3684,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3690,7 +3702,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3708,7 +3720,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3726,7 +3738,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3744,7 +3756,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3762,7 +3774,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3780,7 +3792,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3798,7 +3810,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3816,7 +3828,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3834,7 +3846,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3852,7 +3864,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3870,7 +3882,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3888,7 +3900,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3906,7 +3918,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3924,7 +3936,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3942,7 +3954,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3960,7 +3972,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3978,7 +3990,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3996,7 +4008,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4014,7 +4026,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4032,7 +4044,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4050,7 +4062,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4068,7 +4080,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4086,7 +4098,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4104,7 +4116,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4122,7 +4134,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4140,7 +4152,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4158,7 +4170,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4176,7 +4188,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4193,7 +4205,9 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="40">
+        <v>46357</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -4273,20 +4287,36 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CITY MARKET/PARRA, VICTORIA.xlsx
+++ b/REGULAR/CITY MARKET/PARRA, VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="202">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1680,7 +1680,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A395" activePane="bottomLeft"/>
       <selection activeCell="C76" sqref="C76"/>
-      <selection pane="bottomLeft" activeCell="K418" sqref="K418"/>
+      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1839,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>227.58600000000001</v>
+        <v>230.08600000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1849,7 +1849,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>310.37500000000006</v>
+        <v>312.87500000000006</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10513,15 +10513,17 @@
       <c r="B416" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C416" s="13"/>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D416" s="38">
         <v>5</v>
       </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H416" s="38"/>
       <c r="I416" s="9"/>
@@ -10576,19 +10578,25 @@
       <c r="A419" s="39">
         <v>45261</v>
       </c>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+      <c r="B419" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="38"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H419" s="38"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">

--- a/REGULAR/CITY MARKET/PARRA, VICTORIA.xlsx
+++ b/REGULAR/CITY MARKET/PARRA, VICTORIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -638,7 +638,34 @@
     <t>8/23,24/2023</t>
   </si>
   <si>
-    <t>12/14,19,21,26,28/2023</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/14,19,21,28/2023</t>
+  </si>
+  <si>
+    <t>A(9-0-0)</t>
+  </si>
+  <si>
+    <t>8/1-3,5,7-10,12/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>7/25-27,29,31/2023</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/6,10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-54)</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1373,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K466" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1675,12 +1702,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K460"/>
+  <dimension ref="A2:K466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A395" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A398" activePane="bottomLeft"/>
       <selection activeCell="C76" sqref="C76"/>
-      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
+      <selection pane="bottomLeft" activeCell="K406" sqref="K406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1866,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>230.08600000000001</v>
+        <v>212.97200000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10284,11 +10311,15 @@
       <c r="A406" s="39">
         <v>44986</v>
       </c>
-      <c r="B406" s="20"/>
+      <c r="B406" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C406" s="13">
         <v>1.25</v>
       </c>
-      <c r="D406" s="38"/>
+      <c r="D406" s="38">
+        <v>1</v>
+      </c>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
       <c r="G406" s="13">
@@ -10298,17 +10329,23 @@
       <c r="H406" s="38"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="48">
+        <v>45016</v>
+      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39">
         <v>45017</v>
       </c>
-      <c r="B407" s="20"/>
+      <c r="B407" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="C407" s="13">
         <v>1.25</v>
       </c>
-      <c r="D407" s="38"/>
+      <c r="D407" s="38">
+        <v>2</v>
+      </c>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
       <c r="G407" s="13">
@@ -10318,88 +10355,84 @@
       <c r="H407" s="38"/>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="20"/>
+      <c r="K407" s="20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="39">
-        <v>45047</v>
-      </c>
+      <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C408" s="13">
-        <v>1.25</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C408" s="13"/>
       <c r="D408" s="38">
-        <v>15</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H408" s="38"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="K408" s="20"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
       </c>
-      <c r="D409" s="38"/>
+      <c r="D409" s="38">
+        <v>15</v>
+      </c>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
       <c r="G409" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H409" s="38">
-        <v>1</v>
-      </c>
+      <c r="H409" s="38"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="48">
-        <v>45087</v>
+      <c r="K409" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39"/>
       <c r="B410" s="20" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C410" s="13"/>
-      <c r="D410" s="38"/>
+      <c r="D410" s="38">
+        <v>1</v>
+      </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
       <c r="G410" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H410" s="38">
-        <v>1</v>
-      </c>
+      <c r="H410" s="38"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
       <c r="K410" s="48">
-        <v>45094</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C411" s="13">
         <v>1.25</v>
@@ -10411,90 +10444,96 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H411" s="38"/>
+      <c r="H411" s="38">
+        <v>1</v>
+      </c>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
       <c r="K411" s="48">
-        <v>45125</v>
+        <v>45087</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="39">
-        <v>45139</v>
-      </c>
+      <c r="A412" s="39"/>
       <c r="B412" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C412" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D412" s="38">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C412" s="13"/>
+      <c r="D412" s="38"/>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H412" s="38"/>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="38">
+        <v>1</v>
+      </c>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="20" t="s">
-        <v>200</v>
+      <c r="K412" s="48">
+        <v>45094</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="39"/>
+      <c r="A413" s="39">
+        <v>45108</v>
+      </c>
       <c r="B413" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C413" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="38"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H413" s="38">
-        <v>1</v>
-      </c>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H413" s="38"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
       <c r="K413" s="48">
-        <v>45152</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="39">
-        <v>45170</v>
-      </c>
-      <c r="B414" s="20"/>
-      <c r="C414" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D414" s="38"/>
+      <c r="A414" s="39"/>
+      <c r="B414" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C414" s="13"/>
+      <c r="D414" s="38">
+        <v>5</v>
+      </c>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H414" s="38"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
+      <c r="K414" s="48" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B415" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C415" s="13">
         <v>1.25</v>
       </c>
-      <c r="D415" s="38"/>
+      <c r="D415" s="38">
+        <v>2</v>
+      </c>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
       <c r="G415" s="13">
@@ -10504,41 +10543,41 @@
       <c r="H415" s="38"/>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
-      <c r="K415" s="20"/>
+      <c r="K415" s="20" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C416" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D416" s="38">
-        <v>5</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C416" s="13"/>
+      <c r="D416" s="38"/>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H416" s="38"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="38">
+        <v>1</v>
+      </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20" t="s">
-        <v>201</v>
+      <c r="K416" s="48">
+        <v>45152</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="20" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="C417" s="13"/>
-      <c r="D417" s="38"/>
+      <c r="D417" s="38">
+        <v>9</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
       <c r="G417" s="13" t="str">
@@ -10548,39 +10587,35 @@
       <c r="H417" s="38"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="48">
-        <v>45264</v>
+      <c r="K417" s="48" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="20" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="C418" s="13"/>
-      <c r="D418" s="38"/>
+      <c r="D418" s="38">
+        <v>2E-3</v>
+      </c>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
       <c r="G418" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H418" s="38">
-        <v>1</v>
-      </c>
+      <c r="H418" s="38"/>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
-      <c r="K418" s="48">
-        <v>45251</v>
-      </c>
+      <c r="K418" s="48"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B419" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B419" s="20"/>
       <c r="C419" s="13">
         <v>1.25</v>
       </c>
@@ -10594,22 +10629,22 @@
       <c r="H419" s="38"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="48">
-        <v>45293</v>
-      </c>
+      <c r="K419" s="20"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B420" s="20"/>
-      <c r="C420" s="13"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D420" s="38"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H420" s="38"/>
       <c r="I420" s="9"/>
@@ -10618,27 +10653,35 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
-        <v>45323</v>
-      </c>
-      <c r="B421" s="20"/>
-      <c r="C421" s="13"/>
-      <c r="D421" s="38"/>
+        <v>45231</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D421" s="38">
+        <v>4</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="38"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="20" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B422" s="20"/>
+      <c r="A422" s="39"/>
+      <c r="B422" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C422" s="13"/>
       <c r="D422" s="38"/>
       <c r="E422" s="9"/>
@@ -10650,13 +10693,15 @@
       <c r="H422" s="38"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
+      <c r="K422" s="48">
+        <v>45264</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="39">
-        <v>45383</v>
-      </c>
-      <c r="B423" s="20"/>
+      <c r="A423" s="39"/>
+      <c r="B423" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C423" s="13"/>
       <c r="D423" s="38"/>
       <c r="E423" s="9"/>
@@ -10665,32 +10710,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H423" s="38"/>
+      <c r="H423" s="38">
+        <v>1</v>
+      </c>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
+      <c r="K423" s="48">
+        <v>45251</v>
+      </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
-        <v>45413</v>
-      </c>
-      <c r="B424" s="20"/>
-      <c r="C424" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B424" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D424" s="38"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H424" s="38"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="20"/>
+      <c r="K424" s="48">
+        <v>45293</v>
+      </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="39">
-        <v>45444</v>
+      <c r="A425" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10704,11 +10759,11 @@
       <c r="H425" s="38"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
+      <c r="K425" s="48"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
-        <v>45474</v>
+        <v>45292</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10726,7 +10781,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10744,7 +10799,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10762,7 +10817,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10780,7 +10835,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10798,7 +10853,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10816,7 +10871,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10834,7 +10889,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10852,7 +10907,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10870,7 +10925,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10888,7 +10943,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10906,7 +10961,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10924,7 +10979,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10942,7 +10997,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10960,7 +11015,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10978,7 +11033,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10996,7 +11051,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11014,7 +11069,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11032,7 +11087,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11050,7 +11105,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
-        <v>46054</v>
+        <v>45870</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11068,7 +11123,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11086,7 +11141,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
-        <v>46113</v>
+        <v>45931</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11104,7 +11159,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
-        <v>46143</v>
+        <v>45962</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11122,7 +11177,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
-        <v>46174</v>
+        <v>45992</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11140,7 +11195,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>46204</v>
+        <v>46023</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11158,7 +11213,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
-        <v>46235</v>
+        <v>46054</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11176,7 +11231,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39">
-        <v>46266</v>
+        <v>46082</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11194,7 +11249,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
-        <v>46296</v>
+        <v>46113</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11212,7 +11267,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
-        <v>46327</v>
+        <v>46143</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11230,7 +11285,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
-        <v>46357</v>
+        <v>46174</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11247,7 +11302,9 @@
       <c r="K455" s="20"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="39"/>
+      <c r="A456" s="39">
+        <v>46204</v>
+      </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
       <c r="D456" s="38"/>
@@ -11263,7 +11320,9 @@
       <c r="K456" s="20"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="39"/>
+      <c r="A457" s="39">
+        <v>46235</v>
+      </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
       <c r="D457" s="38"/>
@@ -11279,7 +11338,9 @@
       <c r="K457" s="20"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="39"/>
+      <c r="A458" s="39">
+        <v>46266</v>
+      </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
       <c r="D458" s="38"/>
@@ -11295,7 +11356,9 @@
       <c r="K458" s="20"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="39"/>
+      <c r="A459" s="39">
+        <v>46296</v>
+      </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
       <c r="D459" s="38"/>
@@ -11311,20 +11374,120 @@
       <c r="K459" s="20"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40"/>
-      <c r="B460" s="15"/>
-      <c r="C460" s="41"/>
-      <c r="D460" s="42"/>
+      <c r="A460" s="39">
+        <v>46327</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="38"/>
       <c r="E460" s="9"/>
-      <c r="F460" s="15"/>
-      <c r="G460" s="41" t="str">
+      <c r="F460" s="20"/>
+      <c r="G460" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H460" s="42"/>
+      <c r="H460" s="38"/>
       <c r="I460" s="9"/>
-      <c r="J460" s="12"/>
-      <c r="K460" s="15"/>
+      <c r="J460" s="11"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="39">
+        <v>46357</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="38"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="38"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="39"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="38"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H462" s="38"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="39"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="38"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H463" s="38"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="39"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="38"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H464" s="38"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="39"/>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="38"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H465" s="38"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="40"/>
+      <c r="B466" s="15"/>
+      <c r="C466" s="41"/>
+      <c r="D466" s="42"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="15"/>
+      <c r="G466" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H466" s="42"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="12"/>
+      <c r="K466" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11437,18 +11600,14 @@
       <c r="B3" s="11">
         <v>1.208</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
         <v>54</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.6120000000000001</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="J3" s="46">
         <v>9</v>
